--- a/INTLINE/data/924/SSE/SSE Main Board - Weekly.xlsx
+++ b/INTLINE/data/924/SSE/SSE Main Board - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZF3"/>
+  <dimension ref="A1:AZG3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7144,15 +7144,20 @@
       </c>
       <c r="AZD1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-23</t>
+        </is>
+      </c>
+      <c r="AZE1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="AZE1" s="1" t="inlineStr">
+      <c r="AZF1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="AZF1" s="1" t="inlineStr">
+      <c r="AZG1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -11146,19 +11151,22 @@
         <v>288.25</v>
       </c>
       <c r="AZC2" t="n">
-        <v>290.36</v>
-      </c>
-      <c r="AZD2" t="inlineStr">
+        <v>288.97</v>
+      </c>
+      <c r="AZD2" t="n">
+        <v>291.32</v>
+      </c>
+      <c r="AZE2" t="inlineStr">
         <is>
           <t>SSEB</t>
         </is>
       </c>
-      <c r="AZE2" t="inlineStr">
+      <c r="AZF2" t="inlineStr">
         <is>
           <t>Shanghai Stock Exchange Main Board, B Share Index, Close Price</t>
         </is>
       </c>
-      <c r="AZF2" t="inlineStr">
+      <c r="AZG2" t="inlineStr">
         <is>
           <t>Index: 1992.01.21=100</t>
         </is>
@@ -15160,19 +15168,22 @@
         <v>3365.69</v>
       </c>
       <c r="AZC3" t="n">
-        <v>3302.51</v>
-      </c>
-      <c r="AZD3" t="inlineStr">
+        <v>3235.27</v>
+      </c>
+      <c r="AZD3" t="n">
+        <v>3193.33</v>
+      </c>
+      <c r="AZE3" t="inlineStr">
         <is>
           <t>SSEA</t>
         </is>
       </c>
-      <c r="AZE3" t="inlineStr">
+      <c r="AZF3" t="inlineStr">
         <is>
           <t>Shanghai Stock Exchange Main Board, A Share Index, Close Price</t>
         </is>
       </c>
-      <c r="AZF3" t="inlineStr">
+      <c r="AZG3" t="inlineStr">
         <is>
           <t>Index: 1992.01.21=100</t>
         </is>

--- a/INTLINE/data/924/SSE/SSE Main Board - Weekly.xlsx
+++ b/INTLINE/data/924/SSE/SSE Main Board - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZO3"/>
+  <dimension ref="A1:AZP3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7189,15 +7189,20 @@
       </c>
       <c r="AZM1" s="1" t="inlineStr">
         <is>
+          <t>2022-06-25</t>
+        </is>
+      </c>
+      <c r="AZN1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="AZN1" s="1" t="inlineStr">
+      <c r="AZO1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="AZO1" s="1" t="inlineStr">
+      <c r="AZP1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -11218,19 +11223,22 @@
         <v>308.04</v>
       </c>
       <c r="AZL2" t="n">
-        <v>302.44</v>
-      </c>
-      <c r="AZM2" t="inlineStr">
+        <v>303.12</v>
+      </c>
+      <c r="AZM2" t="n">
+        <v>307.61</v>
+      </c>
+      <c r="AZN2" t="inlineStr">
         <is>
           <t>SSEB</t>
         </is>
       </c>
-      <c r="AZN2" t="inlineStr">
+      <c r="AZO2" t="inlineStr">
         <is>
           <t>Shanghai Stock Exchange Main Board, B Share Index, Close Price</t>
         </is>
       </c>
-      <c r="AZO2" t="inlineStr">
+      <c r="AZP2" t="inlineStr">
         <is>
           <t>Index: 1992.01.21=100</t>
         </is>
@@ -15259,19 +15267,22 @@
         <v>3475.83</v>
       </c>
       <c r="AZL3" t="n">
-        <v>3454.14</v>
-      </c>
-      <c r="AZM3" t="inlineStr">
+        <v>3510.59</v>
+      </c>
+      <c r="AZM3" t="n">
+        <v>3540.73</v>
+      </c>
+      <c r="AZN3" t="inlineStr">
         <is>
           <t>SSEA</t>
         </is>
       </c>
-      <c r="AZN3" t="inlineStr">
+      <c r="AZO3" t="inlineStr">
         <is>
           <t>Shanghai Stock Exchange Main Board, A Share Index, Close Price</t>
         </is>
       </c>
-      <c r="AZO3" t="inlineStr">
+      <c r="AZP3" t="inlineStr">
         <is>
           <t>Index: 1992.01.21=100</t>
         </is>
